--- a/intervals_per_aria.xlsx
+++ b/intervals_per_aria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,37 +461,67 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve"> M6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> P-4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> P-5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> P-8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve"> P1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> P4</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> P5</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> P8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> m-2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> m-3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> m2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> m3</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> m6</t>
         </is>
       </c>
     </row>
@@ -517,25 +547,43 @@
         <v>2.502818489289741</v>
       </c>
       <c r="G2" t="n">
+        <v>0.6989853438556933</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.73618940248027</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7666290868094702</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3382187147688839</v>
+      </c>
+      <c r="K2" t="n">
         <v>13.52874859075535</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>2.998872604284104</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>1.781285231116122</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>0.4509582863585118</v>
+      </c>
+      <c r="O2" t="n">
         <v>12.53664036076663</v>
       </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>5.208568207440812</v>
       </c>
-      <c r="L2" t="n">
+      <c r="Q2" t="n">
         <v>7.463359639233371</v>
       </c>
-      <c r="M2" t="n">
+      <c r="R2" t="n">
         <v>5.749718151071026</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9695603156708005</v>
       </c>
     </row>
     <row r="3">
@@ -560,25 +608,43 @@
         <v>2.354509107063527</v>
       </c>
       <c r="G3" t="n">
+        <v>1.110617503331852</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.73256330519769</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.999111505997335</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.688138605064416</v>
+      </c>
+      <c r="K3" t="n">
         <v>13.41625944024878</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>4.797867614393603</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>3.776099511328299</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
+        <v>1.466015104398045</v>
+      </c>
+      <c r="O3" t="n">
         <v>13.19413593958241</v>
       </c>
-      <c r="K3" t="n">
+      <c r="P3" t="n">
         <v>3.998223011994669</v>
       </c>
-      <c r="L3" t="n">
+      <c r="Q3" t="n">
         <v>7.285650821856953</v>
       </c>
-      <c r="M3" t="n">
+      <c r="R3" t="n">
         <v>3.68725011106175</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.510439804531319</v>
       </c>
     </row>
     <row r="4">
@@ -603,25 +669,43 @@
         <v>1.923076923076923</v>
       </c>
       <c r="G4" t="n">
+        <v>0.9844322344322344</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.648351648351648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8012820512820512</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4807692307692308</v>
+      </c>
+      <c r="K4" t="n">
         <v>17.49084249084249</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>2.495421245421245</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>2.06043956043956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
+        <v>0.86996336996337</v>
+      </c>
+      <c r="O4" t="n">
         <v>14.4459706959707</v>
       </c>
-      <c r="K4" t="n">
+      <c r="P4" t="n">
         <v>4.189560439560439</v>
       </c>
-      <c r="L4" t="n">
+      <c r="Q4" t="n">
         <v>7.989926739926739</v>
       </c>
-      <c r="M4" t="n">
+      <c r="R4" t="n">
         <v>3.731684981684982</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.396520146520147</v>
       </c>
     </row>
     <row r="5">
@@ -646,25 +730,43 @@
         <v>1.821642196846112</v>
       </c>
       <c r="G5" t="n">
+        <v>0.4350190320826536</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.984774333877107</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.005981511691137</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4078303425774877</v>
+      </c>
+      <c r="K5" t="n">
         <v>19.16802610114193</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>3.398586188145732</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>2.09352909189777</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
+        <v>0.7612833061446439</v>
+      </c>
+      <c r="O5" t="n">
         <v>14.11092985318108</v>
       </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
         <v>2.88200108754758</v>
       </c>
-      <c r="L5" t="n">
+      <c r="Q5" t="n">
         <v>9.896682979880369</v>
       </c>
-      <c r="M5" t="n">
+      <c r="R5" t="n">
         <v>3.588907014681892</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.7612833061446439</v>
       </c>
     </row>
     <row r="6">
@@ -689,25 +791,43 @@
         <v>2.717520858164482</v>
       </c>
       <c r="G6" t="n">
+        <v>0.6436233611442194</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.406436233611442</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.239570917759237</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.144219308700834</v>
+      </c>
+      <c r="K6" t="n">
         <v>16.23361144219309</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>3.742550655542312</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>2.64600715137068</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
+        <v>0.8581644815256257</v>
+      </c>
+      <c r="O6" t="n">
         <v>12.61025029797378</v>
       </c>
-      <c r="K6" t="n">
+      <c r="P6" t="n">
         <v>3.742550655542312</v>
       </c>
-      <c r="L6" t="n">
+      <c r="Q6" t="n">
         <v>7.485101311084624</v>
       </c>
-      <c r="M6" t="n">
+      <c r="R6" t="n">
         <v>3.861740166865316</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8581644815256257</v>
       </c>
     </row>
     <row r="7">
@@ -732,25 +852,43 @@
         <v>1.843428297821403</v>
       </c>
       <c r="G7" t="n">
+        <v>0.5266937993775437</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.580081398132631</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8858032080440507</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3112281541776395</v>
+      </c>
+      <c r="K7" t="n">
         <v>15.87263586305961</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
         <v>3.567153459420637</v>
       </c>
-      <c r="I7" t="n">
+      <c r="M7" t="n">
         <v>1.867368925065837</v>
       </c>
-      <c r="J7" t="n">
+      <c r="N7" t="n">
+        <v>0.7182188173330141</v>
+      </c>
+      <c r="O7" t="n">
         <v>14.62772324634905</v>
       </c>
-      <c r="K7" t="n">
+      <c r="P7" t="n">
         <v>4.285372276753651</v>
       </c>
-      <c r="L7" t="n">
+      <c r="Q7" t="n">
         <v>9.648072779506824</v>
       </c>
-      <c r="M7" t="n">
+      <c r="R7" t="n">
         <v>3.638975341153938</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.077328225999521</v>
       </c>
     </row>
     <row r="8">
@@ -775,25 +913,43 @@
         <v>2.084439723844928</v>
       </c>
       <c r="G8" t="n">
+        <v>0.6107275624004248</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.553372278279342</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5841741901221456</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.7833244822092406</v>
+      </c>
+      <c r="K8" t="n">
         <v>11.86935740839087</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L8" t="n">
         <v>2.788104089219331</v>
       </c>
-      <c r="I8" t="n">
+      <c r="M8" t="n">
         <v>2.044609665427509</v>
       </c>
-      <c r="J8" t="n">
+      <c r="N8" t="n">
+        <v>0.5576208178438662</v>
+      </c>
+      <c r="O8" t="n">
         <v>13.07753584705258</v>
       </c>
-      <c r="K8" t="n">
+      <c r="P8" t="n">
         <v>4.726500265533723</v>
       </c>
-      <c r="L8" t="n">
+      <c r="Q8" t="n">
         <v>9.652150823154541</v>
       </c>
-      <c r="M8" t="n">
+      <c r="R8" t="n">
         <v>3.850238980350504</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.6771109930961232</v>
       </c>
     </row>
   </sheetData>
